--- a/src/wheeltrans/resources/TransportList.xlsx
+++ b/src/wheeltrans/resources/TransportList.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
   <si>
     <t>MR #</t>
   </si>
@@ -813,18 +813,21 @@
     <t>127F</t>
   </si>
   <si>
-    <t xml:space="preserve">234n Rural Dr Apt A320         </t>
+    <t xml:space="preserve">234n Rural Dr Apt A320, Monterey Park, CA 91755        </t>
   </si>
   <si>
     <t>128F</t>
   </si>
   <si>
-    <t xml:space="preserve">350 Mooney Dr                      </t>
+    <t xml:space="preserve">350 Mooney Dr  Monterey Park, CA                    </t>
   </si>
   <si>
     <t>129M</t>
   </si>
   <si>
+    <t xml:space="preserve">350 Mooney Dr Monterey Park, CA                     </t>
+  </si>
+  <si>
     <t>130F</t>
   </si>
   <si>
@@ -834,7 +837,7 @@
     <t>131F</t>
   </si>
   <si>
-    <t xml:space="preserve">140n Montebello Blvd 325           </t>
+    <t xml:space="preserve">140n Montebello Blvd 325, Monterey Park, CA 91755           </t>
   </si>
   <si>
     <t>132F</t>
@@ -7924,7 +7927,7 @@
         <v>44</v>
       </c>
       <c r="D125" t="s" s="9">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E125" t="s" s="7">
         <v>15</v>
@@ -7948,12 +7951,12 @@
     </row>
     <row r="126" ht="20.1" customHeight="1">
       <c r="A126" t="s" s="5">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" t="s" s="16">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
@@ -7965,7 +7968,7 @@
     </row>
     <row r="127" ht="20.1" customHeight="1">
       <c r="A127" t="s" s="5">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B127" t="s" s="5">
         <v>19</v>
@@ -7974,7 +7977,7 @@
         <v>38</v>
       </c>
       <c r="D127" t="s" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E127" t="s" s="7">
         <v>15</v>
@@ -7994,12 +7997,12 @@
     </row>
     <row r="128" ht="20.1" customHeight="1">
       <c r="A128" t="s" s="5">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" t="s" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
@@ -8011,12 +8014,12 @@
     </row>
     <row r="129" ht="20.1" customHeight="1">
       <c r="A129" t="s" s="5">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" t="s" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -8028,7 +8031,7 @@
     </row>
     <row r="130" ht="20.1" customHeight="1">
       <c r="A130" t="s" s="5">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B130" t="s" s="5">
         <v>12</v>
@@ -8037,7 +8040,7 @@
         <v>44</v>
       </c>
       <c r="D130" t="s" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E130" t="s" s="7">
         <v>15</v>
@@ -8061,7 +8064,7 @@
     </row>
     <row r="131" ht="20.1" customHeight="1">
       <c r="A131" t="s" s="5">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B131" t="s" s="5">
         <v>12</v>
@@ -8070,7 +8073,7 @@
         <v>44</v>
       </c>
       <c r="D131" t="s" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E131" t="s" s="7">
         <v>15</v>
@@ -8094,7 +8097,7 @@
     </row>
     <row r="132" ht="20.1" customHeight="1">
       <c r="A132" t="s" s="5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B132" t="s" s="5">
         <v>12</v>
@@ -8103,7 +8106,7 @@
         <v>44</v>
       </c>
       <c r="D132" t="s" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E132" t="s" s="7">
         <v>15</v>
@@ -8127,7 +8130,7 @@
     </row>
     <row r="133" ht="20.1" customHeight="1">
       <c r="A133" t="s" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B133" t="s" s="5">
         <v>12</v>
@@ -8136,7 +8139,7 @@
         <v>13</v>
       </c>
       <c r="D133" t="s" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E133" t="s" s="7">
         <v>15</v>
@@ -8156,7 +8159,7 @@
     </row>
     <row r="134" ht="20.1" customHeight="1">
       <c r="A134" t="s" s="5">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B134" t="s" s="5">
         <v>12</v>
@@ -8165,7 +8168,7 @@
         <v>13</v>
       </c>
       <c r="D134" t="s" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E134" t="s" s="7">
         <v>15</v>
@@ -8185,16 +8188,16 @@
     </row>
     <row r="135" ht="20.1" customHeight="1">
       <c r="A135" t="s" s="5">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B135" t="s" s="5">
         <v>19</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D135" t="s" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E135" t="s" s="7">
         <v>15</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="136" ht="20.1" customHeight="1">
       <c r="A136" t="s" s="5">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B136" t="s" s="5">
         <v>12</v>
@@ -8223,7 +8226,7 @@
         <v>44</v>
       </c>
       <c r="D136" t="s" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E136" t="s" s="7">
         <v>15</v>
@@ -8247,16 +8250,16 @@
     </row>
     <row r="137" ht="20.1" customHeight="1">
       <c r="A137" t="s" s="5">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C137" t="s" s="5">
         <v>44</v>
       </c>
       <c r="D137" t="s" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E137" t="s" s="7">
         <v>15</v>
@@ -8280,14 +8283,14 @@
     </row>
     <row r="138" ht="20.1" customHeight="1">
       <c r="A138" t="s" s="5">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B138" t="s" s="5">
         <v>12</v>
       </c>
       <c r="C138" s="12"/>
       <c r="D138" t="s" s="16">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
@@ -8299,7 +8302,7 @@
     </row>
     <row r="139" ht="20.1" customHeight="1">
       <c r="A139" t="s" s="5">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B139" t="s" s="5">
         <v>12</v>
@@ -8308,7 +8311,7 @@
         <v>44</v>
       </c>
       <c r="D139" t="s" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E139" t="s" s="7">
         <v>15</v>
@@ -8332,7 +8335,7 @@
     </row>
     <row r="140" ht="20.1" customHeight="1">
       <c r="A140" t="s" s="5">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B140" t="s" s="5">
         <v>19</v>
@@ -8341,7 +8344,7 @@
         <v>13</v>
       </c>
       <c r="D140" t="s" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E140" t="s" s="7">
         <v>15</v>
@@ -8361,7 +8364,7 @@
     </row>
     <row r="141" ht="20.1" customHeight="1">
       <c r="A141" t="s" s="5">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s" s="5">
         <v>19</v>
@@ -8370,7 +8373,7 @@
         <v>38</v>
       </c>
       <c r="D141" t="s" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E141" t="s" s="7">
         <v>15</v>
@@ -8390,7 +8393,7 @@
     </row>
     <row r="142" ht="20.1" customHeight="1">
       <c r="A142" t="s" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B142" t="s" s="5">
         <v>19</v>
@@ -8399,7 +8402,7 @@
         <v>38</v>
       </c>
       <c r="D142" t="s" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E142" t="s" s="7">
         <v>15</v>
@@ -8419,12 +8422,12 @@
     </row>
     <row r="143" ht="20.1" customHeight="1">
       <c r="A143" t="s" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
       <c r="D143" t="s" s="28">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
@@ -8436,7 +8439,7 @@
     </row>
     <row r="144" ht="20.1" customHeight="1">
       <c r="A144" t="s" s="5">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B144" t="s" s="5">
         <v>12</v>
@@ -8445,7 +8448,7 @@
         <v>20</v>
       </c>
       <c r="D144" t="s" s="29">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E144" t="s" s="7">
         <v>15</v>
@@ -8465,7 +8468,7 @@
     </row>
     <row r="145" ht="20.1" customHeight="1">
       <c r="A145" t="s" s="5">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B145" t="s" s="5">
         <v>12</v>
@@ -8474,7 +8477,7 @@
         <v>13</v>
       </c>
       <c r="D145" t="s" s="9">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E145" t="s" s="7">
         <v>15</v>
@@ -8494,7 +8497,7 @@
     </row>
     <row r="146" ht="20.1" customHeight="1">
       <c r="A146" t="s" s="5">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B146" t="s" s="5">
         <v>12</v>
@@ -8503,7 +8506,7 @@
         <v>222</v>
       </c>
       <c r="D146" t="s" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E146" t="s" s="7">
         <v>15</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="147" ht="20.1" customHeight="1">
       <c r="A147" t="s" s="5">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B147" t="s" s="5">
         <v>12</v>
@@ -8534,7 +8537,7 @@
         <v>44</v>
       </c>
       <c r="D147" t="s" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E147" t="s" s="7">
         <v>15</v>
@@ -8558,7 +8561,7 @@
     </row>
     <row r="148" ht="20.1" customHeight="1">
       <c r="A148" t="s" s="5">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B148" t="s" s="5">
         <v>12</v>
@@ -8567,7 +8570,7 @@
         <v>13</v>
       </c>
       <c r="D148" t="s" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E148" t="s" s="7">
         <v>15</v>
@@ -8587,7 +8590,7 @@
     </row>
     <row r="149" ht="20.1" customHeight="1">
       <c r="A149" t="s" s="5">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B149" t="s" s="5">
         <v>91</v>
@@ -8596,7 +8599,7 @@
         <v>13</v>
       </c>
       <c r="D149" t="s" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E149" t="s" s="7">
         <v>15</v>
@@ -8616,7 +8619,7 @@
     </row>
     <row r="150" ht="20.1" customHeight="1">
       <c r="A150" t="s" s="5">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B150" t="s" s="5">
         <v>19</v>
@@ -8625,7 +8628,7 @@
         <v>135</v>
       </c>
       <c r="D150" t="s" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
@@ -8645,7 +8648,7 @@
     </row>
     <row r="151" ht="20.1" customHeight="1">
       <c r="A151" t="s" s="5">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B151" t="s" s="5">
         <v>19</v>
@@ -8654,7 +8657,7 @@
         <v>38</v>
       </c>
       <c r="D151" t="s" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E151" t="s" s="7">
         <v>15</v>
@@ -8674,7 +8677,7 @@
     </row>
     <row r="152" ht="20.1" customHeight="1">
       <c r="A152" t="s" s="5">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B152" t="s" s="5">
         <v>19</v>
@@ -8683,7 +8686,7 @@
         <v>13</v>
       </c>
       <c r="D152" t="s" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E152" t="s" s="7">
         <v>15</v>
@@ -8703,7 +8706,7 @@
     </row>
     <row r="153" ht="20.1" customHeight="1">
       <c r="A153" t="s" s="5">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B153" t="s" s="5">
         <v>19</v>
@@ -8712,7 +8715,7 @@
         <v>13</v>
       </c>
       <c r="D153" t="s" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E153" t="s" s="7">
         <v>15</v>
@@ -8732,12 +8735,12 @@
     </row>
     <row r="154" ht="20.1" customHeight="1">
       <c r="A154" t="s" s="5">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
       <c r="D154" t="s" s="9">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
@@ -8751,12 +8754,12 @@
     </row>
     <row r="155" ht="20.1" customHeight="1">
       <c r="A155" t="s" s="5">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" t="s" s="9">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
@@ -8768,7 +8771,7 @@
     </row>
     <row r="156" ht="20.1" customHeight="1">
       <c r="A156" t="s" s="5">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B156" t="s" s="5">
         <v>12</v>
@@ -8777,7 +8780,7 @@
         <v>166</v>
       </c>
       <c r="D156" t="s" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E156" t="s" s="7">
         <v>15</v>
@@ -8799,14 +8802,14 @@
     </row>
     <row r="157" ht="20.1" customHeight="1">
       <c r="A157" t="s" s="5">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B157" t="s" s="5">
         <v>91</v>
       </c>
       <c r="C157" s="12"/>
       <c r="D157" t="s" s="9">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
@@ -8820,12 +8823,12 @@
     </row>
     <row r="158" ht="20.1" customHeight="1">
       <c r="A158" t="s" s="5">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
       <c r="D158" t="s" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -8837,7 +8840,7 @@
     </row>
     <row r="159" ht="20.1" customHeight="1">
       <c r="A159" t="s" s="5">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B159" t="s" s="5">
         <v>12</v>
@@ -8846,7 +8849,7 @@
         <v>44</v>
       </c>
       <c r="D159" t="s" s="9">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E159" t="s" s="7">
         <v>15</v>
@@ -8870,7 +8873,7 @@
     </row>
     <row r="160" ht="20.1" customHeight="1">
       <c r="A160" t="s" s="5">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B160" t="s" s="5">
         <v>12</v>
@@ -8879,7 +8882,7 @@
         <v>44</v>
       </c>
       <c r="D160" t="s" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E160" t="s" s="7">
         <v>15</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="161" ht="20.1" customHeight="1">
       <c r="A161" t="s" s="5">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B161" t="s" s="5">
         <v>12</v>
@@ -8912,7 +8915,7 @@
         <v>44</v>
       </c>
       <c r="D161" t="s" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E161" t="s" s="7">
         <v>15</v>
@@ -8936,7 +8939,7 @@
     </row>
     <row r="162" ht="20.1" customHeight="1">
       <c r="A162" t="s" s="5">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s" s="5">
         <v>12</v>
@@ -8984,7 +8987,7 @@
     </row>
     <row r="164" ht="20.1" customHeight="1">
       <c r="A164" t="s" s="5">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B164" t="s" s="5">
         <v>12</v>
@@ -8993,7 +8996,7 @@
         <v>44</v>
       </c>
       <c r="D164" t="s" s="9">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E164" t="s" s="7">
         <v>15</v>
@@ -9017,7 +9020,7 @@
     </row>
     <row r="165" ht="20.1" customHeight="1">
       <c r="A165" t="s" s="5">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -9032,7 +9035,7 @@
     </row>
     <row r="166" ht="20.1" customHeight="1">
       <c r="A166" t="s" s="5">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -9047,7 +9050,7 @@
     </row>
     <row r="167" ht="20.1" customHeight="1">
       <c r="A167" t="s" s="5">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B167" t="s" s="5">
         <v>12</v>
@@ -9056,7 +9059,7 @@
         <v>185</v>
       </c>
       <c r="D167" t="s" s="9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E167" t="s" s="7">
         <v>15</v>
@@ -9078,7 +9081,7 @@
     </row>
     <row r="168" ht="20.1" customHeight="1">
       <c r="A168" t="s" s="5">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B168" t="s" s="5">
         <v>12</v>
@@ -9087,7 +9090,7 @@
         <v>44</v>
       </c>
       <c r="D168" t="s" s="9">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E168" t="s" s="7">
         <v>15</v>
@@ -9111,14 +9114,14 @@
     </row>
     <row r="169" ht="20.1" customHeight="1">
       <c r="A169" t="s" s="5">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B169" s="12"/>
       <c r="C169" t="s" s="5">
         <v>104</v>
       </c>
       <c r="D169" t="s" s="9">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E169" t="s" s="7">
         <v>15</v>
@@ -9142,14 +9145,14 @@
     </row>
     <row r="170" ht="20.1" customHeight="1">
       <c r="A170" t="s" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B170" s="12"/>
       <c r="C170" t="s" s="5">
         <v>104</v>
       </c>
       <c r="D170" t="s" s="9">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E170" t="s" s="7">
         <v>15</v>
@@ -9173,7 +9176,7 @@
     </row>
     <row r="171" ht="20.1" customHeight="1">
       <c r="A171" t="s" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -9188,7 +9191,7 @@
     </row>
     <row r="172" ht="20.1" customHeight="1">
       <c r="A172" t="s" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -9203,7 +9206,7 @@
     </row>
     <row r="173" ht="20.1" customHeight="1">
       <c r="A173" t="s" s="5">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B173" s="12"/>
       <c r="C173" t="s" s="5">
@@ -9232,7 +9235,7 @@
     </row>
     <row r="174" ht="20.1" customHeight="1">
       <c r="A174" t="s" s="5">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -9247,12 +9250,12 @@
     </row>
     <row r="175" ht="20.1" customHeight="1">
       <c r="A175" t="s" s="5">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
       <c r="D175" t="s" s="9">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
@@ -9264,7 +9267,7 @@
     </row>
     <row r="176" ht="20.1" customHeight="1">
       <c r="A176" t="s" s="5">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -9279,7 +9282,7 @@
     </row>
     <row r="177" ht="20.1" customHeight="1">
       <c r="A177" t="s" s="5">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -9619,7 +9622,7 @@
     </row>
     <row r="203" ht="20.1" customHeight="1">
       <c r="A203" t="s" s="5">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -9634,7 +9637,7 @@
     </row>
     <row r="204" ht="20.1" customHeight="1">
       <c r="A204" t="s" s="5">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -9649,7 +9652,7 @@
     </row>
     <row r="205" ht="20.1" customHeight="1">
       <c r="A205" t="s" s="5">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="206" ht="20.1" customHeight="1">
       <c r="A206" t="s" s="5">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -9776,14 +9779,14 @@
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="34"/>
       <c r="B3" t="s" s="40">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" t="s" s="40">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" t="s" s="40">
@@ -9794,14 +9797,14 @@
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" t="s" s="40">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" t="s" s="40">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E4" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" t="s" s="40">
@@ -9812,14 +9815,14 @@
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" t="s" s="40">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" t="s" s="40">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" t="s" s="40">
@@ -9830,14 +9833,14 @@
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" t="s" s="40">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" t="s" s="40">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" t="s" s="40">
@@ -9848,14 +9851,14 @@
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" t="s" s="40">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" t="s" s="40">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" t="s" s="40">
@@ -9866,14 +9869,14 @@
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" t="s" s="40">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" t="s" s="40">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" t="s" s="40">
@@ -9884,16 +9887,16 @@
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" t="s" s="40">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s" s="40">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D9" t="s" s="40">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E9" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" t="s" s="40">
@@ -9904,16 +9907,16 @@
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" t="s" s="40">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s" s="40">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s" s="40">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E10" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" t="s" s="40">
@@ -9924,14 +9927,14 @@
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" t="s" s="40">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" t="s" s="40">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E11" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" t="s" s="40">
@@ -9942,14 +9945,14 @@
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" t="s" s="40">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" t="s" s="40">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" t="s" s="40">
@@ -9960,14 +9963,14 @@
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" t="s" s="40">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" t="s" s="40">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E13" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" t="s" s="40">
@@ -9978,14 +9981,14 @@
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" s="34"/>
       <c r="B14" t="s" s="40">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" t="s" s="40">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E14" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" t="s" s="40">
@@ -9996,14 +9999,14 @@
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" t="s" s="40">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" t="s" s="40">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E15" t="s" s="40">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" t="s" s="40">
@@ -10014,253 +10017,253 @@
     <row r="16" ht="14.3" customHeight="1">
       <c r="A16" s="34"/>
       <c r="B16" t="s" s="41">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E16" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" t="s" s="40">
         <f>B16&amp;" "&amp;D16&amp;", "&amp;""&amp;E16</f>
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" ht="14.3" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" t="s" s="41">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E17" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" t="s" s="40">
         <f>B17&amp;" "&amp;D17&amp;", "&amp;""&amp;E17</f>
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" ht="14.3" customHeight="1">
       <c r="A18" s="34"/>
       <c r="B18" t="s" s="41">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" t="s" s="41">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E18" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" t="s" s="40">
         <f>B18&amp;" "&amp;D18&amp;", "&amp;""&amp;E18</f>
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" ht="14.3" customHeight="1">
       <c r="A19" s="34"/>
       <c r="B19" t="s" s="41">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" t="s" s="41">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E19" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" t="s" s="40">
         <f>B19&amp;" "&amp;D19&amp;", "&amp;""&amp;E19</f>
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" ht="14.3" customHeight="1">
       <c r="A20" s="34"/>
       <c r="B20" t="s" s="41">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E20" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" t="s" s="40">
         <f>B20&amp;" "&amp;D20&amp;", "&amp;""&amp;E20</f>
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" ht="14.3" customHeight="1">
       <c r="A21" s="34"/>
       <c r="B21" t="s" s="41">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E21" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" t="s" s="40">
         <f>B21&amp;" "&amp;D21&amp;", "&amp;""&amp;E21</f>
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" ht="14.3" customHeight="1">
       <c r="A22" s="34"/>
       <c r="B22" t="s" s="41">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" t="s" s="41">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E22" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" t="s" s="40">
         <f>B22&amp;" "&amp;D22&amp;", "&amp;""&amp;E22</f>
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" ht="14.3" customHeight="1">
       <c r="A23" s="34"/>
       <c r="B23" t="s" s="41">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" t="s" s="41">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E23" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" t="s" s="40">
         <f>B23&amp;" "&amp;D23&amp;", "&amp;""&amp;E23</f>
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" ht="14.3" customHeight="1">
       <c r="A24" s="34"/>
       <c r="B24" t="s" s="41">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" t="s" s="41">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E24" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" t="s" s="40">
         <f>B24&amp;" "&amp;D24&amp;", "&amp;""&amp;E24</f>
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" ht="14.3" customHeight="1">
       <c r="A25" s="34"/>
       <c r="B25" t="s" s="41">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" t="s" s="40">
         <f>B25&amp;" "&amp;D25&amp;", "&amp;""&amp;E25</f>
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" ht="14.3" customHeight="1">
       <c r="A26" s="34"/>
       <c r="B26" t="s" s="41">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E26" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" t="s" s="40">
         <f>B26&amp;" "&amp;D26&amp;", "&amp;""&amp;E26</f>
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" ht="14.3" customHeight="1">
       <c r="A27" s="34"/>
       <c r="B27" t="s" s="41">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E27" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" t="s" s="40">
         <f>B27&amp;" "&amp;D27&amp;", "&amp;""&amp;E27</f>
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" ht="14.3" customHeight="1">
       <c r="A28" s="34"/>
       <c r="B28" t="s" s="41">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E28" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" t="s" s="40">
         <f>B28&amp;" "&amp;D28&amp;", "&amp;""&amp;E28</f>
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" ht="14.3" customHeight="1">
       <c r="A29" s="34"/>
       <c r="B29" t="s" s="41">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" t="s" s="41">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E29" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" t="s" s="40">
         <f>B29&amp;" "&amp;D29&amp;", "&amp;""&amp;E29</f>
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
@@ -10272,7 +10275,7 @@
       <c r="F30" s="34"/>
       <c r="G30" t="s" s="40">
         <f>B30&amp;" "&amp;D30&amp;", "&amp;""&amp;E30</f>
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" ht="14.3" customHeight="1">
@@ -10280,649 +10283,649 @@
         <v>132</v>
       </c>
       <c r="B31" t="s" s="41">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E31" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" t="s" s="40">
         <f>B31&amp;" "&amp;D31&amp;", "&amp;""&amp;E31</f>
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" ht="14.3" customHeight="1">
       <c r="A32" s="34"/>
       <c r="B32" t="s" s="41">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E32" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" t="s" s="40">
         <f>B32&amp;" "&amp;D32&amp;", "&amp;""&amp;E32</f>
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" ht="14.3" customHeight="1">
       <c r="A33" s="34"/>
       <c r="B33" t="s" s="41">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" t="s" s="41">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E33" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" t="s" s="40">
         <f>B33&amp;" "&amp;D33&amp;", "&amp;""&amp;E33</f>
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" ht="14.3" customHeight="1">
       <c r="A34" s="34"/>
       <c r="B34" t="s" s="41">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" t="s" s="41">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" t="s" s="40">
         <f>B34&amp;" "&amp;D34&amp;", "&amp;""&amp;E34</f>
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" ht="14.3" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" t="s" s="41">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" t="s" s="41">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E35" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" t="s" s="40">
         <f>B35&amp;" "&amp;D35&amp;", "&amp;""&amp;E35</f>
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" ht="14.3" customHeight="1">
       <c r="A36" s="34"/>
       <c r="B36" t="s" s="41">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E36" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" t="s" s="40">
         <f>B36&amp;" "&amp;D36&amp;", "&amp;""&amp;E36</f>
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" ht="14.3" customHeight="1">
       <c r="A37" s="34"/>
       <c r="B37" t="s" s="41">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C37" s="34"/>
       <c r="D37" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E37" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" t="s" s="40">
         <f>B37&amp;" "&amp;D37&amp;", "&amp;""&amp;E37</f>
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" ht="14.3" customHeight="1">
       <c r="A38" s="34"/>
       <c r="B38" t="s" s="41">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C38" s="34"/>
       <c r="D38" t="s" s="41">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E38" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" t="s" s="40">
         <f>B38&amp;" "&amp;D38&amp;", "&amp;""&amp;E38</f>
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" ht="14.3" customHeight="1">
       <c r="A39" s="34"/>
       <c r="B39" t="s" s="41">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E39" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" t="s" s="40">
         <f>B39&amp;" "&amp;D39&amp;", "&amp;""&amp;E39</f>
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" ht="14.3" customHeight="1">
       <c r="A40" s="34"/>
       <c r="B40" t="s" s="41">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C40" s="34"/>
       <c r="D40" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E40" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" t="s" s="40">
         <f>B40&amp;" "&amp;D40&amp;", "&amp;""&amp;E40</f>
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" ht="14.3" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" t="s" s="41">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E41" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" t="s" s="40">
         <f>B41&amp;" "&amp;D41&amp;", "&amp;""&amp;E41</f>
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" ht="14.3" customHeight="1">
       <c r="A42" s="34"/>
       <c r="B42" t="s" s="41">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C42" s="34"/>
       <c r="D42" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" t="s" s="40">
         <f>B42&amp;" "&amp;D42&amp;", "&amp;""&amp;E42</f>
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" ht="14.3" customHeight="1">
       <c r="A43" s="34"/>
       <c r="B43" t="s" s="41">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E43" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" t="s" s="40">
         <f>B43&amp;" "&amp;D43&amp;", "&amp;""&amp;E43</f>
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" ht="14.3" customHeight="1">
       <c r="A44" s="34"/>
       <c r="B44" t="s" s="41">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C44" s="34"/>
       <c r="D44" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E44" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" t="s" s="40">
         <f>B44&amp;" "&amp;D44&amp;", "&amp;""&amp;E44</f>
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" ht="14.3" customHeight="1">
       <c r="A45" s="34"/>
       <c r="B45" t="s" s="41">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E45" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" t="s" s="40">
         <f>B45&amp;" "&amp;D45&amp;", "&amp;""&amp;E45</f>
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" ht="14.3" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" t="s" s="41">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C46" s="34"/>
       <c r="D46" t="s" s="41">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E46" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" t="s" s="40">
         <f>B46&amp;" "&amp;D46&amp;", "&amp;""&amp;E46</f>
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" ht="14.3" customHeight="1">
       <c r="A47" s="34"/>
       <c r="B47" t="s" s="41">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C47" s="34"/>
       <c r="D47" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E47" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F47" t="s" s="41">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G47" t="s" s="40">
         <f>B47&amp;" "&amp;D47&amp;", "&amp;""&amp;E47</f>
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" ht="14.3" customHeight="1">
       <c r="A48" s="34"/>
       <c r="B48" t="s" s="41">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C48" s="34"/>
       <c r="D48" t="s" s="41">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E48" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F48" t="s" s="41">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G48" t="s" s="40">
         <f>B48&amp;" "&amp;D48&amp;", "&amp;""&amp;E48</f>
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" ht="14.3" customHeight="1">
       <c r="A49" s="34"/>
       <c r="B49" t="s" s="41">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C49" s="34"/>
       <c r="D49" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E49" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F49" t="s" s="41">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G49" t="s" s="40">
         <f>B49&amp;" "&amp;D49&amp;", "&amp;""&amp;E49</f>
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" ht="14.3" customHeight="1">
       <c r="A50" s="34"/>
       <c r="B50" t="s" s="41">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C50" s="34"/>
       <c r="D50" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E50" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F50" t="s" s="41">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G50" t="s" s="40">
         <f>B50&amp;" "&amp;D50&amp;", "&amp;""&amp;E50</f>
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" ht="14.3" customHeight="1">
       <c r="A51" s="34"/>
       <c r="B51" t="s" s="41">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C51" s="34"/>
       <c r="D51" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E51" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F51" t="s" s="41">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s" s="40">
         <f>B51&amp;" "&amp;D51&amp;", "&amp;""&amp;E51</f>
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" ht="14.3" customHeight="1">
       <c r="A52" s="34"/>
       <c r="B52" t="s" s="41">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C52" s="34"/>
       <c r="D52" t="s" s="41">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E52" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F52" t="s" s="41">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G52" t="s" s="40">
         <f>B52&amp;" "&amp;D52&amp;", "&amp;""&amp;E52</f>
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" ht="14.3" customHeight="1">
       <c r="A53" s="34"/>
       <c r="B53" t="s" s="41">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C53" s="34"/>
       <c r="D53" t="s" s="41">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E53" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F53" t="s" s="41">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s" s="40">
         <f>B53&amp;" "&amp;D53&amp;", "&amp;""&amp;E53</f>
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" ht="14.3" customHeight="1">
       <c r="A54" s="34"/>
       <c r="B54" t="s" s="41">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C54" s="43"/>
       <c r="D54" t="s" s="41">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E54" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F54" t="s" s="41">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G54" t="s" s="40">
         <f>B54&amp;" "&amp;D54&amp;", "&amp;""&amp;E54</f>
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" ht="14.3" customHeight="1">
       <c r="A55" s="34"/>
       <c r="B55" t="s" s="41">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C55" s="43"/>
       <c r="D55" t="s" s="41">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E55" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F55" t="s" s="41">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G55" t="s" s="40">
         <f>B55&amp;" "&amp;D55&amp;", "&amp;""&amp;E55</f>
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" ht="14.3" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" t="s" s="41">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C56" s="43"/>
       <c r="D56" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E56" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F56" t="s" s="41">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G56" t="s" s="40">
         <f>B56&amp;" "&amp;D56&amp;", "&amp;""&amp;E56</f>
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" ht="14.3" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" t="s" s="41">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C57" s="43"/>
       <c r="D57" t="s" s="41">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E57" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F57" t="s" s="41">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G57" t="s" s="40">
         <f>B57&amp;" "&amp;D57&amp;", "&amp;""&amp;E57</f>
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" ht="14.3" customHeight="1">
       <c r="A58" s="34"/>
       <c r="B58" t="s" s="41">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C58" s="43"/>
       <c r="D58" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F58" t="s" s="41">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G58" t="s" s="40">
         <f>B58&amp;" "&amp;D58&amp;", "&amp;""&amp;E58</f>
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" ht="14.3" customHeight="1">
       <c r="A59" s="34"/>
       <c r="B59" t="s" s="41">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C59" s="43"/>
       <c r="D59" t="s" s="41">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E59" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F59" t="s" s="41">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G59" t="s" s="40">
         <f>B59&amp;" "&amp;D59&amp;", "&amp;""&amp;E59</f>
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" ht="14.3" customHeight="1">
       <c r="A60" s="34"/>
       <c r="B60" t="s" s="41">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C60" s="43"/>
       <c r="D60" t="s" s="41">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E60" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F60" t="s" s="41">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G60" t="s" s="40">
         <f>B60&amp;" "&amp;D60&amp;", "&amp;""&amp;E60</f>
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" ht="14.3" customHeight="1">
       <c r="A61" s="34"/>
       <c r="B61" t="s" s="41">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C61" s="43"/>
       <c r="D61" t="s" s="41">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E61" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F61" t="s" s="41">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G61" t="s" s="40">
         <f>B61&amp;" "&amp;D61&amp;", "&amp;""&amp;E61</f>
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" ht="14.3" customHeight="1">
       <c r="A62" s="34"/>
       <c r="B62" t="s" s="41">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C62" s="43"/>
       <c r="D62" t="s" s="41">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E62" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F62" t="s" s="41">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G62" t="s" s="40">
         <f>B62&amp;" "&amp;D62&amp;", "&amp;""&amp;E62</f>
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" ht="14.3" customHeight="1">
       <c r="A63" s="34"/>
       <c r="B63" t="s" s="41">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C63" s="43"/>
       <c r="D63" t="s" s="41">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E63" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F63" t="s" s="41">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G63" t="s" s="40">
         <f>B63&amp;" "&amp;D63&amp;", "&amp;""&amp;E63</f>
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" ht="14.3" customHeight="1">
       <c r="A64" s="34"/>
       <c r="B64" t="s" s="41">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" t="s" s="41">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E64" t="s" s="41">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F64" t="s" s="41">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G64" t="s" s="40">
         <f>B64&amp;" "&amp;D64&amp;", "&amp;""&amp;E64</f>
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
